--- a/KS3/Year-7.xlsx
+++ b/KS3/Year-7.xlsx
@@ -825,7 +825,7 @@
   <dimension ref="A1:M209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="60" customHeight="1"/>

--- a/KS3/Year-7.xlsx
+++ b/KS3/Year-7.xlsx
@@ -199,13 +199,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> -I can describe what is meant by the term ‘fair use’
-- I can find copyright-free images
-- I can say why I should use copyright-free images  -I can add content to my own web page
-- I can evaluate what my web page looks like on different devices and suggest/make edits
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Learners should describe what is meant by term 'fair use'          Learners should find copyright-free images                             Learners should add content to their web page                                                         Learners should preview and evaluate their pages on different devices and make edits                                  </t>
   </si>
   <si>
@@ -400,6 +393,13 @@
   </si>
   <si>
     <t xml:space="preserve">Google Sites                                                                     Crystal Teachcomp </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -I can describe what is meant by the term ‘fair use’
+- I can find copyright-free images
+- I can say why I should use copyright-free images                                           -I can add content to my own web page
+- I can evaluate what my web page looks like on different devices and suggest/make edits
+</t>
   </si>
 </sst>
 </file>
@@ -937,9 +937,9 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="38.1" customHeight="1"/>
@@ -1020,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
@@ -1041,7 +1041,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>42</v>
@@ -1061,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>28</v>
@@ -1082,7 +1082,7 @@
         <v>39</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>43</v>
@@ -1102,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>28</v>
@@ -1123,7 +1123,7 @@
         <v>36</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>46</v>
@@ -1143,7 +1143,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>26</v>
@@ -1164,7 +1164,7 @@
         <v>35</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>48</v>
@@ -1184,7 +1184,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>26</v>
@@ -1205,13 +1205,13 @@
         <v>37</v>
       </c>
       <c r="J7" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="M7" s="10">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>26</v>
@@ -1246,13 +1246,13 @@
         <v>41</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="M8" s="10">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>27</v>
@@ -1287,13 +1287,13 @@
         <v>38</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="12">
         <v>1</v>
@@ -1307,7 +1307,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
@@ -1328,10 +1328,10 @@
         <v>3</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>4</v>
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -1369,13 +1369,13 @@
         <v>5</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M11" s="3">
         <v>1</v>
@@ -1389,7 +1389,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>27</v>
@@ -1410,13 +1410,13 @@
         <v>6</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M12" s="3">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>27</v>
@@ -1451,10 +1451,10 @@
         <v>7</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>8</v>
@@ -1471,7 +1471,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>27</v>
@@ -1489,16 +1489,16 @@
         <v>3</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="M14" s="6">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>33</v>
@@ -1530,13 +1530,13 @@
         <v>1</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>9</v>
@@ -1553,7 +1553,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>33</v>
@@ -1571,13 +1571,13 @@
         <v>2</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>10</v>
@@ -1594,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>33</v>
@@ -1612,13 +1612,13 @@
         <v>3</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>11</v>
@@ -1635,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>33</v>
@@ -1653,16 +1653,16 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="M18" s="3">
         <v>1</v>
@@ -1676,7 +1676,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>33</v>
@@ -1694,13 +1694,13 @@
         <v>2</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>12</v>
@@ -1717,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>33</v>
@@ -1735,16 +1735,16 @@
         <v>3</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="M20" s="6">
         <v>1</v>
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>27</v>
@@ -1776,13 +1776,13 @@
         <v>1</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>13</v>
@@ -1799,7 +1799,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>27</v>
@@ -1817,16 +1817,16 @@
         <v>2</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M22" s="10">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>27</v>
@@ -1858,16 +1858,16 @@
         <v>3</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M23" s="10">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>27</v>
@@ -1899,13 +1899,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>14</v>
@@ -1922,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>27</v>
@@ -1940,16 +1940,16 @@
         <v>2</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M25" s="10">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>27</v>
@@ -1981,13 +1981,13 @@
         <v>3</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>15</v>

--- a/KS3/Year-7.xlsx
+++ b/KS3/Year-7.xlsx
@@ -712,7 +712,39 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -937,9 +969,9 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="38.1" customHeight="1"/>
@@ -1017,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>80</v>
@@ -1057,8 +1089,8 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>6</v>
+      <c r="B4" s="7">
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>80</v>
@@ -1098,8 +1130,8 @@
       <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>6</v>
+      <c r="B5" s="7">
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>80</v>
@@ -1140,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>80</v>
@@ -1180,8 +1212,8 @@
       <c r="A7" s="13">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
-        <v>6</v>
+      <c r="B7" s="7">
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>80</v>
@@ -1221,8 +1253,8 @@
       <c r="A8" s="13">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
-        <v>6</v>
+      <c r="B8" s="7">
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>80</v>
@@ -1263,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>80</v>
@@ -1303,8 +1335,8 @@
       <c r="A10" s="13">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
-        <v>6</v>
+      <c r="B10" s="7">
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>80</v>
@@ -1344,8 +1376,8 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="1">
-        <v>6</v>
+      <c r="B11" s="7">
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>80</v>
@@ -1385,8 +1417,8 @@
       <c r="A12" s="13">
         <v>2</v>
       </c>
-      <c r="B12" s="1">
-        <v>6</v>
+      <c r="B12" s="7">
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>80</v>
@@ -1426,8 +1458,8 @@
       <c r="A13" s="13">
         <v>2</v>
       </c>
-      <c r="B13" s="1">
-        <v>6</v>
+      <c r="B13" s="7">
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>80</v>
@@ -1467,8 +1499,8 @@
       <c r="A14" s="13">
         <v>2</v>
       </c>
-      <c r="B14" s="4">
-        <v>6</v>
+      <c r="B14" s="7">
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>80</v>
@@ -1509,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>80</v>
@@ -1549,8 +1581,8 @@
       <c r="A16" s="13">
         <v>2</v>
       </c>
-      <c r="B16" s="1">
-        <v>6</v>
+      <c r="B16" s="7">
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>80</v>
@@ -1590,8 +1622,8 @@
       <c r="A17" s="13">
         <v>2</v>
       </c>
-      <c r="B17" s="1">
-        <v>6</v>
+      <c r="B17" s="7">
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>80</v>
@@ -1631,8 +1663,8 @@
       <c r="A18" s="13">
         <v>2</v>
       </c>
-      <c r="B18" s="1">
-        <v>6</v>
+      <c r="B18" s="7">
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>80</v>
@@ -1672,8 +1704,8 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="1">
-        <v>6</v>
+      <c r="B19" s="7">
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>80</v>
@@ -1713,8 +1745,8 @@
       <c r="A20" s="13">
         <v>2</v>
       </c>
-      <c r="B20" s="4">
-        <v>6</v>
+      <c r="B20" s="7">
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>80</v>
@@ -1755,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>80</v>
@@ -1795,8 +1827,8 @@
       <c r="A22" s="13">
         <v>2</v>
       </c>
-      <c r="B22" s="1">
-        <v>6</v>
+      <c r="B22" s="7">
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>80</v>
@@ -1836,8 +1868,8 @@
       <c r="A23" s="13">
         <v>2</v>
       </c>
-      <c r="B23" s="1">
-        <v>6</v>
+      <c r="B23" s="7">
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>80</v>
@@ -1877,8 +1909,8 @@
       <c r="A24" s="13">
         <v>2</v>
       </c>
-      <c r="B24" s="1">
-        <v>6</v>
+      <c r="B24" s="7">
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>80</v>
@@ -1918,8 +1950,8 @@
       <c r="A25" s="13">
         <v>2</v>
       </c>
-      <c r="B25" s="1">
-        <v>6</v>
+      <c r="B25" s="7">
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>80</v>
@@ -1959,8 +1991,8 @@
       <c r="A26" s="13">
         <v>2</v>
       </c>
-      <c r="B26" s="4">
-        <v>6</v>
+      <c r="B26" s="7">
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>80</v>
@@ -2047,12 +2079,12 @@
     <filterColumn colId="9"/>
   </autoFilter>
   <conditionalFormatting sqref="B3:M26">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="5" priority="15">
       <formula>$M3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:M26">
-    <cfRule type="expression" dxfId="0" priority="17">
+    <cfRule type="expression" dxfId="4" priority="17">
       <formula>$M3=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/KS3/Year-7.xlsx
+++ b/KS3/Year-7.xlsx
@@ -712,39 +712,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -969,9 +937,9 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="38.1" customHeight="1"/>
@@ -1046,7 +1014,7 @@
     </row>
     <row r="3" spans="1:13" ht="106.5" customHeight="1">
       <c r="A3" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="7">
         <v>7</v>
@@ -1087,7 +1055,7 @@
     </row>
     <row r="4" spans="1:13" ht="108" customHeight="1">
       <c r="A4" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7">
         <v>7</v>
@@ -1128,7 +1096,7 @@
     </row>
     <row r="5" spans="1:13" ht="126" customHeight="1">
       <c r="A5" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7">
         <v>7</v>
@@ -1169,7 +1137,7 @@
     </row>
     <row r="6" spans="1:13" ht="101.25" customHeight="1">
       <c r="A6" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7">
         <v>7</v>
@@ -1210,7 +1178,7 @@
     </row>
     <row r="7" spans="1:13" ht="118.5" customHeight="1">
       <c r="A7" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="7">
         <v>7</v>
@@ -1251,7 +1219,7 @@
     </row>
     <row r="8" spans="1:13" ht="110.25" customHeight="1">
       <c r="A8" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="7">
         <v>7</v>
@@ -1292,7 +1260,7 @@
     </row>
     <row r="9" spans="1:13" ht="69" customHeight="1">
       <c r="A9" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="7">
         <v>7</v>
@@ -1333,7 +1301,7 @@
     </row>
     <row r="10" spans="1:13" ht="89.25" customHeight="1">
       <c r="A10" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="7">
         <v>7</v>
@@ -1374,7 +1342,7 @@
     </row>
     <row r="11" spans="1:13" ht="69" customHeight="1">
       <c r="A11" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="7">
         <v>7</v>
@@ -1415,7 +1383,7 @@
     </row>
     <row r="12" spans="1:13" ht="69" customHeight="1">
       <c r="A12" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="7">
         <v>7</v>
@@ -1456,7 +1424,7 @@
     </row>
     <row r="13" spans="1:13" ht="69" customHeight="1">
       <c r="A13" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7">
         <v>7</v>
@@ -1497,7 +1465,7 @@
     </row>
     <row r="14" spans="1:13" ht="69" customHeight="1">
       <c r="A14" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="7">
         <v>7</v>
@@ -1538,7 +1506,7 @@
     </row>
     <row r="15" spans="1:13" ht="69" customHeight="1">
       <c r="A15" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="7">
         <v>7</v>
@@ -1579,7 +1547,7 @@
     </row>
     <row r="16" spans="1:13" ht="69" customHeight="1">
       <c r="A16" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" s="7">
         <v>7</v>
@@ -1620,7 +1588,7 @@
     </row>
     <row r="17" spans="1:13" ht="69" customHeight="1">
       <c r="A17" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" s="7">
         <v>7</v>
@@ -1661,7 +1629,7 @@
     </row>
     <row r="18" spans="1:13" ht="69" customHeight="1">
       <c r="A18" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="7">
         <v>7</v>
@@ -1702,7 +1670,7 @@
     </row>
     <row r="19" spans="1:13" ht="69" customHeight="1">
       <c r="A19" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" s="7">
         <v>7</v>
@@ -1743,7 +1711,7 @@
     </row>
     <row r="20" spans="1:13" ht="88.5" customHeight="1">
       <c r="A20" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="7">
         <v>7</v>
@@ -1784,7 +1752,7 @@
     </row>
     <row r="21" spans="1:13" ht="106.5" customHeight="1">
       <c r="A21" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" s="7">
         <v>7</v>
@@ -1825,7 +1793,7 @@
     </row>
     <row r="22" spans="1:13" ht="97.5" customHeight="1">
       <c r="A22" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="7">
         <v>7</v>
@@ -1866,7 +1834,7 @@
     </row>
     <row r="23" spans="1:13" ht="87" customHeight="1">
       <c r="A23" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="7">
         <v>7</v>
@@ -1907,7 +1875,7 @@
     </row>
     <row r="24" spans="1:13" ht="104.25" customHeight="1">
       <c r="A24" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" s="7">
         <v>7</v>
@@ -1948,7 +1916,7 @@
     </row>
     <row r="25" spans="1:13" ht="86.25" customHeight="1">
       <c r="A25" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" s="7">
         <v>7</v>
@@ -1989,7 +1957,7 @@
     </row>
     <row r="26" spans="1:13" ht="69" customHeight="1">
       <c r="A26" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="7">
         <v>7</v>
@@ -2079,12 +2047,12 @@
     <filterColumn colId="9"/>
   </autoFilter>
   <conditionalFormatting sqref="B3:M26">
-    <cfRule type="expression" dxfId="5" priority="15">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>$M3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:M26">
-    <cfRule type="expression" dxfId="4" priority="17">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>$M3=0</formula>
     </cfRule>
   </conditionalFormatting>
